--- a/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.1_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3725397253633281</v>
+        <v>0.3773016301252329</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.37253972536332813, 'ngram_match_score': 0.17647892123577016, 'weighted_ngram_match_score': 0.2348921014296638, 'syntax_match_score': 0.7359307359307359, 'dataflow_match_score': 0.34285714285714286}</t>
+          <t>{'codebleu': 0.37730163012523293, 'ngram_match_score': 0.17647892123577016, 'weighted_ngram_match_score': 0.2348921014296638, 'syntax_match_score': 0.7359307359307359, 'dataflow_match_score': 0.3619047619047619}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
